--- a/tmp/upload_case_file.xlsx
+++ b/tmp/upload_case_file.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micllo/Documents/works/GitHub/pythonApi/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micllo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21500" yWindow="4400" windowWidth="29180" windowHeight="19100" tabRatio="500"/>
+    <workbookView xWindow="7120" yWindow="11740" windowWidth="32220" windowHeight="12660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t>执行方式
+          <t>验证模式
 1：验证 关键字段值
 2：.验证 关键字段值、响应字段列表</t>
         </r>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>测试不带参数的get请求</t>
     <rPh sb="0" eb="1">
@@ -343,10 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>exec_mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>compare_core_field_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,7 +363,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>case_status</t>
+    <t>depend_field_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -393,7 +389,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>depend_field_value</t>
+    <t>case_status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -409,59 +405,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/test/test01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求成功</t>
+    <t>verify_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/mobile/data/contacts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交验证码</t>
     <rPh sb="0" eb="1">
-      <t>qing'q'g</t>
+      <t>ti'jiao</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>cheng'gogn</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo1,demo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/test/test02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求成功2</t>
-    <rPh sb="0" eb="1">
-      <t>qing'q'g</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cheng'gogn</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo1,demo2,demo3</t>
+      <t>yan'z'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"test_str":"post测试","test_int":5,"test_bool":"true","test_bool":"true","test_bool":"true","test_bool":"true","test_bool":"true","test_bool":"true","test_bool":"true","test_bool":"true"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -568,7 +530,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -848,18 +809,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="192" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="117.6640625" bestFit="1" customWidth="1"/>
@@ -886,28 +847,28 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -930,7 +891,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" s="4" t="b">
         <v>0</v>
@@ -953,13 +914,13 @@
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="4" t="b">
         <v>1</v>
@@ -985,68 +946,45 @@
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="5"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="4" t="b">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>

--- a/tmp/upload_case_file.xlsx
+++ b/tmp/upload_case_file.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7120" yWindow="11740" windowWidth="32220" windowHeight="12660" tabRatio="500"/>
+    <workbookView xWindow="3200" yWindow="3820" windowWidth="32220" windowHeight="12660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>测试不带参数的get请求</t>
     <rPh sb="0" eb="1">
@@ -315,10 +315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"test_str":"post测试","test_int":5,"test_bool":"true"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>?test_str=接口自动化测试&amp;test_int=5&amp;test_bool=True</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,10 +344,6 @@
   </si>
   <si>
     <t>expect_core_field_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>compare_field_name_list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -424,6 +416,52 @@
   </si>
   <si>
     <t>{"test_str":"post测试","test_int":5,"test_bool":"true","test_bool":"true","test_bool":"true","test_bool":"true","test_bool":"true","test_bool":"true","test_bool":"true","test_bool":"true"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步成功,True,测试,测试,测试,测试,测试,测试,测试</t>
+    <rPh sb="0" eb="1">
+      <t>tong'bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg,sex,test01,test02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?test_str=接口自动化测试&amp;test_int=5&amp;test_bool=True&amp;test_bool=True&amp;test_bool=True&amp;test_bool=True&amp;test_bool=True&amp;test_bool=True&amp;test_bool=True&amp;test_bool=True&amp;test_bool=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect_field_name_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"test_str":"post测试","test_int":5,"test_bool":"true"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -832,43 +870,43 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -891,7 +929,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M2" s="4" t="b">
         <v>0</v>
@@ -908,19 +946,19 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M3" s="4" t="b">
         <v>1</v>
@@ -940,52 +978,108 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>

--- a/tmp/upload_case_file.xlsx
+++ b/tmp/upload_case_file.xlsx
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tmp/upload_case_file.xlsx
+++ b/tmp/upload_case_file.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="3820" windowWidth="32220" windowHeight="12660" tabRatio="500"/>
+    <workbookView xWindow="3280" yWindow="5040" windowWidth="26940" windowHeight="19740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -209,21 +209,6 @@
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t>依赖字段值</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
           <t>用例状态</t>
         </r>
       </text>
@@ -233,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>测试不带参数的get请求</t>
     <rPh sb="0" eb="1">
@@ -254,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/test/test_get_request_no_paparms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,6 +296,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"test_str":"post测试","test_int":5,"test_bool":"true"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>?test_str=接口自动化测试&amp;test_int=5&amp;test_bool=True</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,10 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>request_method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>request_header</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,10 +333,6 @@
   </si>
   <si>
     <t>depend_field_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>depend_field_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -373,14 +350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>msg,test_int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求成功,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>case_status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,67 +370,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/rest/mobile/data/contacts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交验证码</t>
-    <rPh sb="0" eb="1">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yan'z'm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"test_str":"post测试","test_int":5,"test_bool":"true","test_bool":"true","test_bool":"true","test_bool":"true","test_bool":"true","test_bool":"true","test_bool":"true","test_bool":"true"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步成功,True,测试,测试,测试,测试,测试,测试,测试</t>
-    <rPh sb="0" eb="1">
-      <t>tong'bu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cheng'g</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg,sex,test01,test02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/test/demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?test_str=接口自动化测试&amp;test_int=5&amp;test_bool=True&amp;test_bool=True&amp;test_bool=True&amp;test_bool=True&amp;test_bool=True&amp;test_bool=True&amp;test_bool=True&amp;test_bool=True&amp;test_bool=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expect_field_name_list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"Content-Type": "application/json"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"test_str":"post测试","test_int":5,"test_bool":"true"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>demo02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE</t>
+    <t>request_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/test_get_request_no_params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code,status,msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31200,success,请求成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,30 +770,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="192" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="117.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -876,74 +800,71 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -952,139 +873,55 @@
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="4" t="b">
+      <c r="L3" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tmp/upload_case_file.xlsx
+++ b/tmp/upload_case_file.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="5040" windowWidth="26940" windowHeight="19740" tabRatio="500"/>
+    <workbookView xWindow="15940" yWindow="5220" windowWidth="32220" windowHeight="19340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t>待比较关键字段名</t>
+          <t>待比较关键字段名列表</t>
         </r>
       </text>
     </comment>
@@ -149,7 +149,7 @@
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t>期望的关键字段值</t>
+          <t>期望的关键字段值列表</t>
         </r>
       </text>
     </comment>
@@ -179,7 +179,7 @@
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t>依赖接口名称</t>
+          <t>依赖接口名称列表</t>
         </r>
       </text>
     </comment>
@@ -194,7 +194,7 @@
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t>依赖字段名</t>
+          <t>依赖字段名列表</t>
         </r>
       </text>
     </comment>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>测试不带参数的get请求</t>
     <rPh sb="0" eb="1">
@@ -243,14 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例执行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试带参数的get请求</t>
     <rPh sb="0" eb="1">
       <t>ce'shi</t>
@@ -320,36 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>compare_core_field_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect_core_field_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>depend_interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>depend_field_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg,sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步成功,True</t>
-    <rPh sb="0" eb="1">
-      <t>tong'bu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cheng'g</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>case_status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,11 +344,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>compare_core_field_name_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect_core_field_value_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depend_interface_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depend_field_name_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>code,status,msg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>31200,success,请求成功</t>
+    <rPh sb="14" eb="15">
+      <t>qing'q</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>cheng'gogn</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,62 +756,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="117.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -835,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -844,13 +828,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L2" s="4" t="b">
         <v>0</v>
@@ -858,28 +842,28 @@
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L3" s="4" t="b">
         <v>1</v>
@@ -887,31 +871,31 @@
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>

--- a/tmp/upload_case_file.xlsx
+++ b/tmp/upload_case_file.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15940" yWindow="5220" windowWidth="32220" windowHeight="19340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>测试不带参数的get请求</t>
     <rPh sb="0" eb="1">
@@ -284,10 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"Content-Type": "application/json"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"test_str":"post测试","test_int":5,"test_bool":"true"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,10 +317,6 @@
   </si>
   <si>
     <t>status,code,msg,data,test_str,test_bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status,code,msg,data,test_str,test_int,response_list,reponse_dict,response_list_dict,name,age,sex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -371,6 +363,114 @@
     <rPh sb="16" eb="17">
       <t>cheng'gogn</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status,code,msg,data,test_str,test_int,response_list,response_dict,response_list_dict,name,age,sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取图片</t>
+    <rPh sb="0" eb="1">
+      <t>huo'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖get</t>
+    <rPh sb="0" eb="1">
+      <t>yi'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖post</t>
+    <rPh sb="0" eb="1">
+      <t>yi'lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/get_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/depend_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/depend_post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"messi","passwd":"messi"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?token=TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?image_id=IMAGE_ID&amp;token=TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录,获取图片</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo'q</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"image_id":IMAGE_ID,"token":TOKEN}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type": CONTENT_TYPE}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-param-TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-param-TOKEN,2-param-IMAGE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-param-TOKEN,1-header-CONTENT_TYPE,2-param-IMAGE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -770,48 +870,48 @@
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="117.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="97" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="65.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -819,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -828,13 +928,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="4" t="b">
         <v>0</v>
@@ -851,19 +951,19 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" s="4" t="b">
         <v>1</v>
@@ -880,28 +980,140 @@
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>17</v>
+      <c r="E5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>

--- a/tmp/upload_case_file.xlsx
+++ b/tmp/upload_case_file.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="1940" yWindow="8980" windowWidth="27000" windowHeight="12920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t>依赖接口名称列表</t>
+          <t>是否为依赖接口</t>
         </r>
       </text>
     </comment>
@@ -199,6 +199,21 @@
       </text>
     </comment>
     <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>依赖等级（数字越小越先执行）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>测试不带参数的get请求</t>
     <rPh sb="0" eb="1">
@@ -262,10 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/test/test_get_request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/test/test_post_request</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,18 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"test_str":"post测试","test_int":5,"test_bool":"true"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?test_str=接口自动化测试&amp;test_int=5&amp;test_bool=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>interface_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,14 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status,code,msg,data,pro_name,browser_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status,code,msg,data,test_str,test_bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>verify_mode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,15 +335,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>depend_interface_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>depend_field_name_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code,status,msg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -366,14 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status,code,msg,data,test_str,test_int,response_list,response_dict,response_list_dict,name,age,sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Type": "application/json"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取图片</t>
     <rPh sb="0" eb="1">
       <t>huo'q</t>
@@ -384,6 +359,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/test/test_get_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?test_str=接口自动化测试&amp;test_int=5&amp;test_bool=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>登录</t>
     <rPh sb="0" eb="1">
       <t>deng'lu</t>
@@ -391,6 +378,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/test/get_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>依赖get</t>
     <rPh sb="0" eb="1">
       <t>yi'l</t>
@@ -398,6 +389,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/test/depend_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>依赖post</t>
     <rPh sb="0" eb="1">
       <t>yi'lai</t>
@@ -405,7 +400,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/test/get_image</t>
+    <t>code,status,msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status,code,msg,data,pro_name,browser_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status,code,msg,data,test_str,test_bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"test_str":"post测试","test_int":5,"test_bool":"true"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -413,7 +424,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/test/depend_get</t>
+    <t>{"name":"messi","passwd":"messi"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -421,56 +432,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"messi","passwd":"messi"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?token=TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?image_id=IMAGE_ID&amp;token=TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录,获取图片</t>
-    <rPh sb="0" eb="1">
-      <t>deng'lu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>huo'q</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>tu'p</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"image_id":IMAGE_ID,"token":TOKEN}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Type": CONTENT_TYPE}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-param-TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-param-TOKEN,2-param-IMAGE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-param-TOKEN,1-header-CONTENT_TYPE,2-param-IMAGE_ID</t>
+    <t>is_depend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depend_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status,code,msg,data,name,age,sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token,content-type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?token={{token}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?image_id={{image_id}}&amp;token={{token}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type": "{{content-type}}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"image_id":"{{image_id}}", token":"{{token}}"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -854,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -872,54 +866,57 @@
     <col min="8" max="8" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="97" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -928,196 +925,181 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="4" t="b">
+        <v>28</v>
+      </c>
+      <c r="M2" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="4" t="b">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="J5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="4">
+      <c r="L5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>25</v>
+      <c r="M5" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="4">
+      <c r="J6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="K6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2</v>
+      </c>
+      <c r="M6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tmp/upload_case_file.xlsx
+++ b/tmp/upload_case_file.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="8980" windowWidth="27000" windowHeight="12920" tabRatio="500"/>
+    <workbookView xWindow="420" yWindow="11840" windowWidth="27000" windowHeight="12920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>测试不带参数的get请求</t>
     <rPh sb="0" eb="1">
@@ -465,6 +465,17 @@
   </si>
   <si>
     <t>{"image_id":"{{image_id}}", token":"{{token}}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖get2</t>
+    <rPh sb="0" eb="1">
+      <t>yi'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/depend_get2/{{image_id}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1072,19 +1083,16 @@
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1096,10 +1104,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tmp/upload_case_file.xlsx
+++ b/tmp/upload_case_file.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="11840" windowWidth="27000" windowHeight="12920" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="9620" windowWidth="27000" windowHeight="12920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -549,6 +549,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -567,8 +585,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -583,8 +605,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -861,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,7 +904,7 @@
     <col min="9" max="9" width="97" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">

--- a/tmp/upload_case_file.xlsx
+++ b/tmp/upload_case_file.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="8220" windowWidth="29080" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1220" windowWidth="27360" windowHeight="16020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>interface_name</t>
   </si>
@@ -420,6 +420,14 @@
   </si>
   <si>
     <t>code,status,msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +435,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -461,15 +469,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="4"/>
@@ -485,17 +484,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFC65911"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFD70000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF7030A0"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
       <name val="DengXian"/>
       <family val="4"/>
       <charset val="134"/>
@@ -522,25 +539,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD70000"/>
+      <color rgb="FFC98FBA"/>
+      <color rgb="FFC50000"/>
+      <color rgb="FF9A7500"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -814,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -835,395 +863,395 @@
     <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="K6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2</v>
+      </c>
+      <c r="M7" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="5">
-        <v>2</v>
-      </c>
-      <c r="M7" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/tmp/upload_case_file.xlsx
+++ b/tmp/upload_case_file.xlsx
@@ -843,7 +843,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tmp/upload_case_file.xlsx
+++ b/tmp/upload_case_file.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micllo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micllo/Downloads/A年报数据抓取/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1220" windowWidth="27360" windowHeight="16020" tabRatio="500"/>
+    <workbookView xWindow="920" yWindow="2020" windowWidth="24200" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>interface_name</t>
   </si>
@@ -212,6 +212,9 @@
     <t>image_id</t>
   </si>
   <si>
+    <t>依赖get</t>
+  </si>
+  <si>
     <t>/test/depend_get</t>
   </si>
   <si>
@@ -222,18 +225,6 @@
   </si>
   <si>
     <t>/test/depend_get2/{{image_id}}</t>
-  </si>
-  <si>
-    <t>依赖post</t>
-  </si>
-  <si>
-    <t>/test/depend_post</t>
-  </si>
-  <si>
-    <t>{"Content-Type": "{{content-type}}"}</t>
-  </si>
-  <si>
-    <t>{"image_id":"{{image_id}}", token":"{{token}}"}</t>
   </si>
   <si>
     <t>接口名称</t>
@@ -411,7 +402,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>依赖get</t>
+    <t>{"image_id":"{{image_id}}", token":"{{token}}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>code,status,msg,adb</t>
+  </si>
+  <si>
+    <t>31200,success,请求成功,adb</t>
+  </si>
+  <si>
+    <t>依赖post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/depend_post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type": "{{content-type}}"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -419,15 +434,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>code,status,msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
+    <t>31200,success,请求成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +442,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -476,22 +483,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FFD70000"/>
@@ -518,6 +509,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="0"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -539,21 +537,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,14 +569,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFD70000"/>
-      <color rgb="FFC98FBA"/>
-      <color rgb="FFC50000"/>
-      <color rgb="FF9A7500"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -840,15 +840,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
@@ -864,54 +864,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -920,338 +920,300 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="5">
+        <v>2</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3">
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="3">
-        <v>2</v>
-      </c>
-      <c r="M7" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="G10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/tmp/upload_case_file.xlsx
+++ b/tmp/upload_case_file.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micllo/Downloads/A年报数据抓取/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micllo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="2020" windowWidth="24200" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="15420" yWindow="11000" windowWidth="29080" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>interface_name</t>
   </si>
@@ -225,6 +225,18 @@
   </si>
   <si>
     <t>/test/depend_get2/{{image_id}}</t>
+  </si>
+  <si>
+    <t>依赖post</t>
+  </si>
+  <si>
+    <t>/test/depend_post</t>
+  </si>
+  <si>
+    <t>{"Content-Type": "{{content-type}}"}</t>
+  </si>
+  <si>
+    <t>{"image_id":"{{image_id}}", token":"{{token}}"}</t>
   </si>
   <si>
     <t>接口名称</t>
@@ -402,39 +414,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"image_id":"{{image_id}}", token":"{{token}}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>code,status,msg,adb</t>
-  </si>
-  <si>
-    <t>31200,success,请求成功,adb</t>
-  </si>
-  <si>
-    <t>依赖post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/test/depend_post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Type": "{{content-type}}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>code,status,msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31200,success,请求成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +422,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -483,6 +463,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FFD70000"/>
@@ -509,13 +505,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="0"/>
-      <name val="宋体"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -537,31 +526,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,15 +819,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
@@ -864,54 +843,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
+      <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -920,300 +899,338 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L6" s="3">
         <v>1</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="M6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L7" s="3">
         <v>2</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="M7" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="7">
-        <v>2</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/tmp/upload_case_file.xlsx
+++ b/tmp/upload_case_file.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15420" yWindow="11000" windowWidth="29080" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="29080" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>interface_name</t>
   </si>
@@ -213,12 +213,6 @@
   </si>
   <si>
     <t>依赖get</t>
-  </si>
-  <si>
-    <t>/test/depend_get</t>
-  </si>
-  <si>
-    <t>?image_id={{image_id}}&amp;token={{token}}</t>
   </si>
   <si>
     <t>依赖get2</t>
@@ -414,7 +408,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/test/depend_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?image_id={{image_id}}&amp;token={{token}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>code,status,msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31200,success,请求成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -821,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -844,43 +850,43 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
@@ -1088,23 +1094,23 @@
         <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1114,10 +1120,10 @@
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>15</v>
@@ -1143,25 +1149,25 @@
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>17</v>

--- a/tmp/upload_case_file.xlsx
+++ b/tmp/upload_case_file.xlsx
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>interface_name</t>
   </si>
@@ -462,6 +462,10 @@
   </si>
   <si>
     <t>{"json_name":"test_json_name_556677"}</t>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -879,13 +883,13 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56" bestFit="1" customWidth="1"/>
@@ -1321,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>71</v>

--- a/tmp/upload_case_file.xlsx
+++ b/tmp/upload_case_file.xlsx
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>interface_name</t>
   </si>
@@ -462,10 +462,6 @@
   </si>
   <si>
     <t>{"json_name":"test_json_name_556677"}</t>
-  </si>
-  <si>
-    <t>msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -883,7 +879,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1325,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>71</v>

--- a/tmp/upload_case_file.xlsx
+++ b/tmp/upload_case_file.xlsx
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>interface_name</t>
   </si>
@@ -140,97 +140,7 @@
     <t>case_status</t>
   </si>
   <si>
-    <t>测试不带参数的get请求</t>
-  </si>
-  <si>
-    <t>/test/test_get_request_no_params</t>
-  </si>
-  <si>
     <t>GET</t>
-  </si>
-  <si>
-    <t>code,status,msg</t>
-  </si>
-  <si>
-    <t>31200,success,请求成功</t>
-  </si>
-  <si>
-    <t>status,code,msg,data,pro_name,browser_name</t>
-  </si>
-  <si>
-    <t>测试带参数的get请求</t>
-  </si>
-  <si>
-    <t>/test/test_get_request</t>
-  </si>
-  <si>
-    <t>?test_str=接口自动化测试&amp;test_int=5&amp;test_bool=True</t>
-  </si>
-  <si>
-    <t>status,code,msg,data,test_str,test_bool</t>
-  </si>
-  <si>
-    <t>测试post请求</t>
-  </si>
-  <si>
-    <t>/test/test_post_request</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>{"Content-Type": "application/json"}</t>
-  </si>
-  <si>
-    <t>{"test_str":"post测试","test_int":5,"test_bool":"true"}</t>
-  </si>
-  <si>
-    <t>status,code,msg,data,name,age,sex</t>
-  </si>
-  <si>
-    <t>/test/login</t>
-  </si>
-  <si>
-    <t>{"name":"messi","passwd":"messi"}</t>
-  </si>
-  <si>
-    <t>token,content-type</t>
-  </si>
-  <si>
-    <t>获取图片</t>
-  </si>
-  <si>
-    <t>/test/get_image</t>
-  </si>
-  <si>
-    <t>?token={{token}}</t>
-  </si>
-  <si>
-    <t>image_id</t>
-  </si>
-  <si>
-    <t>依赖get</t>
-  </si>
-  <si>
-    <t>/test/depend_get</t>
-  </si>
-  <si>
-    <t>?image_id={{image_id}}&amp;token={{token}}</t>
-  </si>
-  <si>
-    <t>依赖get2</t>
-  </si>
-  <si>
-    <t>/test/depend_get2/{{image_id}}</t>
-  </si>
-  <si>
-    <t>依赖post</t>
-  </si>
-  <si>
-    <t>/test/depend_post</t>
-  </si>
-  <si>
-    <t>{"image_id":"{{image_id}}", token":"{{token}}"}</t>
   </si>
   <si>
     <t>接口名称</t>
@@ -414,61 +324,32 @@
     <t>True</t>
   </si>
   <si>
-    <t>批量导入</t>
-  </si>
-  <si>
-    <t>/API/import_action/pro_demo_1/batch_insert_and_replace</t>
-  </si>
-  <si>
-    <t>msg</t>
-  </si>
-  <si>
-    <t>当前项目正在运行中</t>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"file": "&lt;excel_file&gt;"}</t>
-  </si>
-  <si>
-    <t>{"Content-Type": "{{content-type}}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>form_post接口</t>
-  </si>
-  <si>
-    <t>/test/form_post</t>
-  </si>
-  <si>
-    <t>{"Content-Type": "application/x-www-form-urlencoded"}</t>
-  </si>
-  <si>
-    <t>{"form_name":"test_form_post_112233"}</t>
-  </si>
-  <si>
-    <t>msg,code</t>
-  </si>
-  <si>
-    <t>请求成功,31200</t>
-  </si>
-  <si>
-    <t>json_post接口</t>
-  </si>
-  <si>
-    <t>/test/json_post</t>
-  </si>
-  <si>
-    <t>{"json_name":"test_json_name_556677"}</t>
+    <t>Java部署项目接口01</t>
+  </si>
+  <si>
+    <t>/jacoco_test_01</t>
+  </si>
+  <si>
+    <t>testName</t>
+  </si>
+  <si>
+    <t>jacoco_test_01</t>
+  </si>
+  <si>
+    <t>Java部署项目接口02</t>
+  </si>
+  <si>
+    <t>/jacoco_test_02</t>
+  </si>
+  <si>
+    <t>jacoco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -503,22 +384,6 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <family val="4"/>
       <charset val="134"/>
@@ -580,23 +445,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -876,15 +739,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67.6640625" bestFit="1" customWidth="1"/>
@@ -900,54 +763,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>46</v>
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>51</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -956,384 +819,91 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="b">
-        <v>0</v>
+      <c r="G3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="3">
-        <v>2</v>
-      </c>
-      <c r="M7" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
